--- a/Assn2/WriteupCharts/Probability_confidenceIntervals.xlsx
+++ b/Assn2/WriteupCharts/Probability_confidenceIntervals.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>P</t>
   </si>
@@ -64,7 +64,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -72,12 +72,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1223,11 +1239,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="389256656"/>
-        <c:axId val="389259400"/>
+        <c:axId val="381598144"/>
+        <c:axId val="381598536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="389256656"/>
+        <c:axId val="381598144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,7 +1342,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389259400"/>
+        <c:crossAx val="381598536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1334,7 +1350,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="389259400"/>
+        <c:axId val="381598536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,7 +1457,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389256656"/>
+        <c:crossAx val="381598144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1608,7 +1624,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$2</c:f>
+              <c:f>Sheet1!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1790,7 +1806,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$52</c:f>
+              <c:f>Sheet1!$I$3:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -1954,7 +1970,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$2</c:f>
+              <c:f>Sheet1!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2136,7 +2152,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$52</c:f>
+              <c:f>Sheet1!$J$3:$J$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2300,7 +2316,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$2</c:f>
+              <c:f>Sheet1!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2482,7 +2498,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$52</c:f>
+              <c:f>Sheet1!$K$3:$K$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2650,11 +2666,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="132333816"/>
-        <c:axId val="132333424"/>
+        <c:axId val="381592264"/>
+        <c:axId val="381598928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132333816"/>
+        <c:axId val="381592264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2753,7 +2769,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132333424"/>
+        <c:crossAx val="381598928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2761,7 +2777,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132333424"/>
+        <c:axId val="381598928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2868,7 +2884,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132333816"/>
+        <c:crossAx val="381592264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3035,7 +3051,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$2</c:f>
+              <c:f>Sheet1!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3217,7 +3233,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$52</c:f>
+              <c:f>Sheet1!$O$3:$O$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -3381,7 +3397,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$2</c:f>
+              <c:f>Sheet1!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3563,7 +3579,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$3:$N$52</c:f>
+              <c:f>Sheet1!$P$3:$P$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -3727,7 +3743,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$2</c:f>
+              <c:f>Sheet1!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3909,7 +3925,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$52</c:f>
+              <c:f>Sheet1!$Q$3:$Q$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -4077,11 +4093,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="132334208"/>
-        <c:axId val="132334600"/>
+        <c:axId val="381595008"/>
+        <c:axId val="381594224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132334208"/>
+        <c:axId val="381595008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4180,7 +4196,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132334600"/>
+        <c:crossAx val="381594224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4188,7 +4204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132334600"/>
+        <c:axId val="381594224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4295,7 +4311,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132334208"/>
+        <c:crossAx val="381595008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4462,7 +4478,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$2</c:f>
+              <c:f>Sheet1!$U$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4644,7 +4660,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$3:$Q$52</c:f>
+              <c:f>Sheet1!$U$3:$U$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -4808,7 +4824,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$2</c:f>
+              <c:f>Sheet1!$V$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4990,7 +5006,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$3:$R$52</c:f>
+              <c:f>Sheet1!$V$3:$V$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -5154,7 +5170,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$2</c:f>
+              <c:f>Sheet1!$W$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5336,7 +5352,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$3:$S$52</c:f>
+              <c:f>Sheet1!$W$3:$W$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -5504,11 +5520,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="393816736"/>
-        <c:axId val="393815560"/>
+        <c:axId val="381600104"/>
+        <c:axId val="381600496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="393816736"/>
+        <c:axId val="381600104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5607,7 +5623,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393815560"/>
+        <c:crossAx val="381600496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5615,7 +5631,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="393815560"/>
+        <c:axId val="381600496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5722,7 +5738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393816736"/>
+        <c:crossAx val="381600104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8037,7 +8053,7 @@
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>520699</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>63499</xdr:rowOff>
@@ -8067,7 +8083,7 @@
       <xdr:rowOff>60324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>63499</xdr:rowOff>
@@ -8091,13 +8107,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>79374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>324908</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
@@ -8121,13 +8137,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>82550</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>12065</xdr:rowOff>
@@ -8439,2110 +8455,2773 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S2" t="s">
+      <c r="W2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="M3" s="1">
         <v>0</v>
       </c>
-      <c r="O3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1">
         <v>0</v>
       </c>
-      <c r="Q3">
+      <c r="P3" s="1">
         <v>0</v>
       </c>
-      <c r="R3">
+      <c r="Q3" s="1">
         <v>0</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>0</v>
       </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>2.9999998514540493E-4</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
         <v>5.8499998413026333E-3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>5.4356730543076992E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>6.2643266282975674E-3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
+        <v>2.9999998514540493E-4</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
         <v>1.05409836769104</v>
       </c>
-      <c r="H4">
+      <c r="J4" s="1">
         <v>0.88302433490753174</v>
       </c>
-      <c r="I4">
+      <c r="K4" s="1">
         <v>1.2251724004745483</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
+        <v>2.9999998514540493E-4</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1">
         <v>5.8499998413026333E-3</v>
       </c>
-      <c r="N4">
+      <c r="P4" s="1">
         <v>5.4356730543076992E-3</v>
       </c>
-      <c r="O4">
+      <c r="Q4" s="1">
         <v>6.2643266282975674E-3</v>
       </c>
-      <c r="Q4">
+      <c r="S4" s="1">
+        <v>2.9999998514540493E-4</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1">
         <v>1.0047619342803955</v>
       </c>
-      <c r="R4">
+      <c r="V4" s="1">
         <v>0.9897034764289856</v>
       </c>
-      <c r="S4">
+      <c r="W4" s="1">
         <v>1.0198204517364502</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>5.9999997029080987E-4</v>
       </c>
-      <c r="C5">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
         <v>1.1800000444054604E-2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1.0393665172159672E-2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>1.3206335715949535E-2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
+        <v>5.9999997029080987E-4</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
         <v>1.196063756942749</v>
       </c>
-      <c r="H5">
+      <c r="J5" s="1">
         <v>0.85814332962036133</v>
       </c>
-      <c r="I5">
+      <c r="K5" s="1">
         <v>1.5339841842651367</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
+        <v>5.9999997029080987E-4</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1">
         <v>1.1789999902248383E-2</v>
       </c>
-      <c r="N5">
+      <c r="P5" s="1">
         <v>1.0399196296930313E-2</v>
       </c>
-      <c r="O5">
+      <c r="Q5" s="1">
         <v>1.3180803507566452E-2</v>
       </c>
-      <c r="Q5">
+      <c r="S5" s="1">
+        <v>5.9999997029080987E-4</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1">
         <v>1.0244539976119995</v>
       </c>
-      <c r="R5">
+      <c r="V5" s="1">
         <v>0.98851591348648071</v>
       </c>
-      <c r="S5">
+      <c r="W5" s="1">
         <v>1.0603921413421631</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>8.9999998454004526E-4</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
         <v>1.8470000475645065E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>1.7054961994290352E-2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>1.9885038956999779E-2</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
+        <v>8.9999998454004526E-4</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
         <v>1.3131146430969238</v>
       </c>
-      <c r="H6">
+      <c r="J6" s="1">
         <v>1.0192050933837891</v>
       </c>
-      <c r="I6">
+      <c r="K6" s="1">
         <v>1.6070241928100586</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
+        <v>8.9999998454004526E-4</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1">
         <v>1.8430000171065331E-2</v>
       </c>
-      <c r="N6">
+      <c r="P6" s="1">
         <v>1.7057208344340324E-2</v>
       </c>
-      <c r="O6">
+      <c r="Q6" s="1">
         <v>1.9802791997790337E-2</v>
       </c>
-      <c r="Q6">
+      <c r="S6" s="1">
+        <v>8.9999998454004526E-4</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1">
         <v>1.0312210321426392</v>
       </c>
-      <c r="R6">
+      <c r="V6" s="1">
         <v>0.99600303173065186</v>
       </c>
-      <c r="S6">
+      <c r="W6" s="1">
         <v>1.0664390325546265</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>1.1999999405816197E-3</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
         <v>2.4340000003576279E-2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>2.2861111909151077E-2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>2.581888809800148E-2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
+        <v>1.1999999405816197E-3</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
         <v>1.3697912693023682</v>
       </c>
-      <c r="H7">
+      <c r="J7" s="1">
         <v>1.0971083641052246</v>
       </c>
-      <c r="I7">
+      <c r="K7" s="1">
         <v>1.6424741744995117</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
+        <v>1.1999999405816197E-3</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1">
         <v>2.4320000782608986E-2</v>
       </c>
-      <c r="N7">
+      <c r="P7" s="1">
         <v>2.2909089922904968E-2</v>
       </c>
-      <c r="O7">
+      <c r="Q7" s="1">
         <v>2.5730911642313004E-2</v>
       </c>
-      <c r="Q7">
+      <c r="S7" s="1">
+        <v>1.1999999405816197E-3</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1">
         <v>1.0915203094482422</v>
       </c>
-      <c r="R7">
+      <c r="V7" s="1">
         <v>1.0192328691482544</v>
       </c>
-      <c r="S7">
+      <c r="W7" s="1">
         <v>1.16380774974823</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>1.500000013038516E-3</v>
       </c>
-      <c r="C8">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
         <v>3.0470000579953194E-2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>2.905496209859848E-2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>3.1885039061307907E-2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
+        <v>1.500000013038516E-3</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
         <v>1.6075295209884644</v>
       </c>
-      <c r="H8">
+      <c r="J8" s="1">
         <v>1.2013330459594727</v>
       </c>
-      <c r="I8">
+      <c r="K8" s="1">
         <v>2.0137259960174561</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
+        <v>1.500000013038516E-3</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1">
         <v>3.0409999191761017E-2</v>
       </c>
-      <c r="N8">
+      <c r="P8" s="1">
         <v>2.9019994661211967E-2</v>
       </c>
-      <c r="O8">
+      <c r="Q8" s="1">
         <v>3.1800001859664917E-2</v>
       </c>
-      <c r="Q8">
+      <c r="S8" s="1">
+        <v>1.500000013038516E-3</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1">
         <v>1.1223598718643188</v>
       </c>
-      <c r="R8">
+      <c r="V8" s="1">
         <v>0.99744510650634766</v>
       </c>
-      <c r="S8">
+      <c r="W8" s="1">
         <v>1.24727463722229</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>1.7999999690800905E-3</v>
       </c>
-      <c r="C9">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
         <v>3.6699999123811722E-2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>3.4850675612688065E-2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>3.8549322634935379E-2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
+        <v>1.7999999690800905E-3</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
         <v>1.6914834976196289</v>
       </c>
-      <c r="H9">
+      <c r="J9" s="1">
         <v>1.2918448448181152</v>
       </c>
-      <c r="I9">
+      <c r="K9" s="1">
         <v>2.0911221504211426</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
+        <v>1.7999999690800905E-3</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1">
         <v>3.6669999361038208E-2</v>
       </c>
-      <c r="N9">
+      <c r="P9" s="1">
         <v>3.4892953932285309E-2</v>
       </c>
-      <c r="O9">
+      <c r="Q9" s="1">
         <v>3.8447044789791107E-2</v>
       </c>
-      <c r="Q9">
+      <c r="S9" s="1">
+        <v>1.7999999690800905E-3</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1">
         <v>1.116637110710144</v>
       </c>
-      <c r="R9">
+      <c r="V9" s="1">
         <v>1.0132673978805542</v>
       </c>
-      <c r="S9">
+      <c r="W9" s="1">
         <v>1.2200068235397339</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>2.099999925121665E-3</v>
       </c>
-      <c r="C10">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
         <v>4.3129999190568924E-2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>4.130910336971283E-2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>4.4950895011425018E-2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
+        <v>2.099999925121665E-3</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
         <v>1.9682707786560059</v>
       </c>
-      <c r="H10">
+      <c r="J10" s="1">
         <v>1.6140002012252808</v>
       </c>
-      <c r="I10">
+      <c r="K10" s="1">
         <v>2.3225412368774414</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
+        <v>2.099999925121665E-3</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1">
         <v>4.3000001460313797E-2</v>
       </c>
-      <c r="N10">
+      <c r="P10" s="1">
         <v>4.1216123849153519E-2</v>
       </c>
-      <c r="O10">
+      <c r="Q10" s="1">
         <v>4.4783879071474075E-2</v>
       </c>
-      <c r="Q10">
+      <c r="S10" s="1">
+        <v>2.099999925121665E-3</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1">
         <v>1.1529035568237305</v>
       </c>
-      <c r="R10">
+      <c r="V10" s="1">
         <v>1.0340594053268433</v>
       </c>
-      <c r="S10">
+      <c r="W10" s="1">
         <v>1.2717477083206177</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>2.3999998811632395E-3</v>
       </c>
-      <c r="C11">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
         <v>4.9120001494884491E-2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>4.7245729714632034E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>5.0994273275136948E-2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
+        <v>2.3999998811632395E-3</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
         <v>1.9873918294906616</v>
       </c>
-      <c r="H11">
+      <c r="J11" s="1">
         <v>1.5746570825576782</v>
       </c>
-      <c r="I11">
+      <c r="K11" s="1">
         <v>2.4001264572143555</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
+        <v>2.3999998811632395E-3</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1">
         <v>4.9010001122951508E-2</v>
       </c>
-      <c r="N11">
+      <c r="P11" s="1">
         <v>4.7179732471704483E-2</v>
       </c>
-      <c r="O11">
+      <c r="Q11" s="1">
         <v>5.0840269774198532E-2</v>
       </c>
-      <c r="Q11">
+      <c r="S11" s="1">
+        <v>2.3999998811632395E-3</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1">
         <v>1.1876024007797241</v>
       </c>
-      <c r="R11">
+      <c r="V11" s="1">
         <v>1.1028327941894531</v>
       </c>
-      <c r="S11">
+      <c r="W11" s="1">
         <v>1.2723720073699951</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>2.699999837204814E-3</v>
       </c>
-      <c r="C12">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
         <v>5.5289998650550842E-2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>5.3185269236564636E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>5.7394728064537048E-2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
+        <v>2.699999837204814E-3</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
         <v>2.0526325702667236</v>
       </c>
-      <c r="H12">
+      <c r="J12" s="1">
         <v>1.7466681003570557</v>
       </c>
-      <c r="I12">
+      <c r="K12" s="1">
         <v>2.3585970401763916</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="1">
+        <v>2.699999837204814E-3</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1">
         <v>5.5199999362230301E-2</v>
       </c>
-      <c r="N12">
+      <c r="P12" s="1">
         <v>5.3134948015213013E-2</v>
       </c>
-      <c r="O12">
+      <c r="Q12" s="1">
         <v>5.7265050709247589E-2</v>
       </c>
-      <c r="Q12">
+      <c r="S12" s="1">
+        <v>2.699999837204814E-3</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1">
         <v>1.1922458410263062</v>
       </c>
-      <c r="R12">
+      <c r="V12" s="1">
         <v>1.1326589584350586</v>
       </c>
-      <c r="S12">
+      <c r="W12" s="1">
         <v>1.2518327236175537</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>3.0000000260770321E-3</v>
       </c>
-      <c r="C13">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
         <v>6.1510000377893448E-2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>5.9263795614242554E-2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>6.3756205141544342E-2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
+        <v>3.0000000260770321E-3</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
         <v>2.1809451580047607</v>
       </c>
-      <c r="H13">
+      <c r="J13" s="1">
         <v>1.9834786653518677</v>
       </c>
-      <c r="I13">
+      <c r="K13" s="1">
         <v>2.3784117698669434</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="1">
+        <v>3.0000000260770321E-3</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1">
         <v>6.1429999768733978E-2</v>
       </c>
-      <c r="N13">
+      <c r="P13" s="1">
         <v>5.9269212186336517E-2</v>
       </c>
-      <c r="O13">
+      <c r="Q13" s="1">
         <v>6.3590787351131439E-2</v>
       </c>
-      <c r="Q13">
+      <c r="S13" s="1">
+        <v>3.0000000260770321E-3</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1">
         <v>1.2421061992645264</v>
       </c>
-      <c r="R13">
+      <c r="V13" s="1">
         <v>1.1562061309814453</v>
       </c>
-      <c r="S13">
+      <c r="W13" s="1">
         <v>1.3280062675476074</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>3.2999999821186066E-3</v>
       </c>
-      <c r="C14">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
         <v>6.7670002579689026E-2</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>6.5228670835494995E-2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>7.0111334323883057E-2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
+        <v>3.2999999821186066E-3</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1">
         <v>2.4568917751312256</v>
       </c>
-      <c r="H14">
+      <c r="J14" s="1">
         <v>2.2714447975158691</v>
       </c>
-      <c r="I14">
+      <c r="K14" s="1">
         <v>2.642338752746582</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="1">
+        <v>3.2999999821186066E-3</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1">
         <v>6.7570000886917114E-2</v>
       </c>
-      <c r="N14">
+      <c r="P14" s="1">
         <v>6.5217673778533936E-2</v>
       </c>
-      <c r="O14">
+      <c r="Q14" s="1">
         <v>6.9922327995300293E-2</v>
       </c>
-      <c r="Q14">
+      <c r="S14" s="1">
+        <v>3.2999999821186066E-3</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1">
         <v>1.2607399225234985</v>
       </c>
-      <c r="R14">
+      <c r="V14" s="1">
         <v>1.207332968711853</v>
       </c>
-      <c r="S14">
+      <c r="W14" s="1">
         <v>1.314146876335144</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>3.599999938160181E-3</v>
       </c>
-      <c r="C15">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
         <v>7.3600001633167267E-2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>7.1104675531387329E-2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>7.6095327734947205E-2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
+        <v>3.599999938160181E-3</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
         <v>2.8692328929901123</v>
       </c>
-      <c r="H15">
+      <c r="J15" s="1">
         <v>2.5693964958190918</v>
       </c>
-      <c r="I15">
+      <c r="K15" s="1">
         <v>3.1690692901611328</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
+        <v>3.599999938160181E-3</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1">
         <v>7.3590002954006195E-2</v>
       </c>
-      <c r="N15">
+      <c r="P15" s="1">
         <v>7.1318216621875763E-2</v>
       </c>
-      <c r="O15">
+      <c r="Q15" s="1">
         <v>7.5861789286136627E-2</v>
       </c>
-      <c r="Q15">
+      <c r="S15" s="1">
+        <v>3.599999938160181E-3</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1">
         <v>1.3039066791534424</v>
       </c>
-      <c r="R15">
+      <c r="V15" s="1">
         <v>1.2483130693435669</v>
       </c>
-      <c r="S15">
+      <c r="W15" s="1">
         <v>1.3595002889633179</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>3.8999998942017555E-3</v>
       </c>
-      <c r="C16">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1">
         <v>7.9910002648830414E-2</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>7.7259868383407593E-2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>8.2560136914253235E-2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
+        <v>3.8999998942017555E-3</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
         <v>2.9165899753570557</v>
       </c>
-      <c r="H16">
+      <c r="J16" s="1">
         <v>2.4871912002563477</v>
       </c>
-      <c r="I16">
+      <c r="K16" s="1">
         <v>3.3459887504577637</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="1">
+        <v>3.8999998942017555E-3</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1">
         <v>7.996000349521637E-2</v>
       </c>
-      <c r="N16">
+      <c r="P16" s="1">
         <v>7.7438890933990479E-2</v>
       </c>
-      <c r="O16">
+      <c r="Q16" s="1">
         <v>8.2481116056442261E-2</v>
       </c>
-      <c r="Q16">
+      <c r="S16" s="1">
+        <v>3.8999998942017555E-3</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1">
         <v>1.3192105293273926</v>
       </c>
-      <c r="R16">
+      <c r="V16" s="1">
         <v>1.2640964984893799</v>
       </c>
-      <c r="S16">
+      <c r="W16" s="1">
         <v>1.3743245601654053</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>4.19999985024333E-3</v>
       </c>
-      <c r="C17">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1">
         <v>8.6230002343654633E-2</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>8.3645842969417572E-2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>8.8814161717891693E-2</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
+        <v>4.19999985024333E-3</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
         <v>3.0509762763977051</v>
       </c>
-      <c r="H17">
+      <c r="J17" s="1">
         <v>2.6130964756011963</v>
       </c>
-      <c r="I17">
+      <c r="K17" s="1">
         <v>3.4888560771942139</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="1">
+        <v>4.19999985024333E-3</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1">
         <v>8.6209997534751892E-2</v>
       </c>
-      <c r="N17">
+      <c r="P17" s="1">
         <v>8.367515355348587E-2</v>
       </c>
-      <c r="O17">
+      <c r="Q17" s="1">
         <v>8.8744841516017914E-2</v>
       </c>
-      <c r="Q17">
+      <c r="S17" s="1">
+        <v>4.19999985024333E-3</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1">
         <v>1.3917305469512939</v>
       </c>
-      <c r="R17">
+      <c r="V17" s="1">
         <v>1.3204545974731445</v>
       </c>
-      <c r="S17">
+      <c r="W17" s="1">
         <v>1.4630064964294434</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>4.4999998062849045E-3</v>
       </c>
-      <c r="C18">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1">
         <v>9.2229999601840973E-2</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>8.9689202606678009E-2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>9.4770796597003937E-2</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
+        <v>4.4999998062849045E-3</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1">
         <v>3.2449977397918701</v>
       </c>
-      <c r="H18">
+      <c r="J18" s="1">
         <v>2.8636832237243652</v>
       </c>
-      <c r="I18">
+      <c r="K18" s="1">
         <v>3.626312255859375</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="1">
+        <v>4.4999998062849045E-3</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1">
         <v>9.2150002717971802E-2</v>
       </c>
-      <c r="N18">
+      <c r="P18" s="1">
         <v>8.9725472033023834E-2</v>
       </c>
-      <c r="O18">
+      <c r="Q18" s="1">
         <v>9.4574533402919769E-2</v>
       </c>
-      <c r="Q18">
+      <c r="S18" s="1">
+        <v>4.4999998062849045E-3</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1">
         <v>1.4518115520477295</v>
       </c>
-      <c r="R18">
+      <c r="V18" s="1">
         <v>1.3581396341323853</v>
       </c>
-      <c r="S18">
+      <c r="W18" s="1">
         <v>1.5454834699630737</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>4.799999762326479E-3</v>
       </c>
-      <c r="C19">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1">
         <v>9.8190002143383026E-2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>9.5379523932933807E-2</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>0.10100048035383224</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
+        <v>4.799999762326479E-3</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1">
         <v>3.4925398826599121</v>
       </c>
-      <c r="H19">
+      <c r="J19" s="1">
         <v>3.2477152347564697</v>
       </c>
-      <c r="I19">
+      <c r="K19" s="1">
         <v>3.7373645305633545</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="1">
+        <v>4.799999762326479E-3</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1">
         <v>9.8070003092288971E-2</v>
       </c>
-      <c r="N19">
+      <c r="P19" s="1">
         <v>9.5386289060115814E-2</v>
       </c>
-      <c r="O19">
+      <c r="Q19" s="1">
         <v>0.10075371712446213</v>
       </c>
-      <c r="Q19">
+      <c r="S19" s="1">
+        <v>4.799999762326479E-3</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1">
         <v>1.4472804069519043</v>
       </c>
-      <c r="R19">
+      <c r="V19" s="1">
         <v>1.3707766532897949</v>
       </c>
-      <c r="S19">
+      <c r="W19" s="1">
         <v>1.5237841606140137</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>5.0999997183680534E-3</v>
       </c>
-      <c r="C20">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1">
         <v>0.1038300022482872</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>0.10137008130550385</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>0.10628992319107056</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
+        <v>5.0999997183680534E-3</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1">
         <v>3.6491882801055908</v>
       </c>
-      <c r="H20">
+      <c r="J20" s="1">
         <v>3.1069045066833496</v>
       </c>
-      <c r="I20">
+      <c r="K20" s="1">
         <v>4.191472053527832</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="1">
+        <v>5.0999997183680534E-3</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1">
         <v>0.10379000008106232</v>
       </c>
-      <c r="N20">
+      <c r="P20" s="1">
         <v>0.10150845348834991</v>
       </c>
-      <c r="O20">
+      <c r="Q20" s="1">
         <v>0.10607154667377472</v>
       </c>
-      <c r="Q20">
+      <c r="S20" s="1">
+        <v>5.0999997183680534E-3</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1">
         <v>1.5167289972305298</v>
       </c>
-      <c r="R20">
+      <c r="V20" s="1">
         <v>1.3749308586120605</v>
       </c>
-      <c r="S20">
+      <c r="W20" s="1">
         <v>1.658527135848999</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>5.3999996744096279E-3</v>
       </c>
-      <c r="C21">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1">
         <v>0.10948000103235245</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>0.10699591785669327</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>0.11196408420801163</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
+        <v>5.3999996744096279E-3</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1">
         <v>4.0107402801513672</v>
       </c>
-      <c r="H21">
+      <c r="J21" s="1">
         <v>3.4518556594848633</v>
       </c>
-      <c r="I21">
+      <c r="K21" s="1">
         <v>4.5696249008178711</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="1">
+        <v>5.3999996744096279E-3</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1">
         <v>0.1096699982881546</v>
       </c>
-      <c r="N21">
+      <c r="P21" s="1">
         <v>0.10756178945302963</v>
       </c>
-      <c r="O21">
+      <c r="Q21" s="1">
         <v>0.11177820712327957</v>
       </c>
-      <c r="Q21">
+      <c r="S21" s="1">
+        <v>5.3999996744096279E-3</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1">
         <v>1.5268977880477905</v>
       </c>
-      <c r="R21">
+      <c r="V21" s="1">
         <v>1.4069724082946777</v>
       </c>
-      <c r="S21">
+      <c r="W21" s="1">
         <v>1.6468231678009033</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>5.7000000961124897E-3</v>
       </c>
-      <c r="C22">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1">
         <v>0.11548999696969986</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>0.1128314882516861</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>0.11814850568771362</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
+        <v>5.7000000961124897E-3</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1">
         <v>4.0248656272888184</v>
       </c>
-      <c r="H22">
+      <c r="J22" s="1">
         <v>3.5621504783630371</v>
       </c>
-      <c r="I22">
+      <c r="K22" s="1">
         <v>4.4875807762145996</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="1">
+        <v>5.7000000961124897E-3</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1">
         <v>0.1155799999833107</v>
       </c>
-      <c r="N22">
+      <c r="P22" s="1">
         <v>0.11330169439315796</v>
       </c>
-      <c r="O22">
+      <c r="Q22" s="1">
         <v>0.11785830557346344</v>
       </c>
-      <c r="Q22">
+      <c r="S22" s="1">
+        <v>5.7000000961124897E-3</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1">
         <v>1.6053378582000732</v>
       </c>
-      <c r="R22">
+      <c r="V22" s="1">
         <v>1.4468085765838623</v>
       </c>
-      <c r="S22">
+      <c r="W22" s="1">
         <v>1.7638671398162842</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <v>6.0000000521540642E-3</v>
       </c>
-      <c r="C23">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1">
         <v>0.12137000262737274</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>0.11874657869338989</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>0.12399342656135559</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
+        <v>6.0000000521540642E-3</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1">
         <v>4.385469913482666</v>
       </c>
-      <c r="H23">
+      <c r="J23" s="1">
         <v>3.5805454254150391</v>
       </c>
-      <c r="I23">
+      <c r="K23" s="1">
         <v>5.190394401550293</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="1">
+        <v>6.0000000521540642E-3</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1">
         <v>0.12137000262737274</v>
       </c>
-      <c r="N23">
+      <c r="P23" s="1">
         <v>0.11898158490657806</v>
       </c>
-      <c r="O23">
+      <c r="Q23" s="1">
         <v>0.12375842034816742</v>
       </c>
-      <c r="Q23">
+      <c r="S23" s="1">
+        <v>6.0000000521540642E-3</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1">
         <v>1.6893134117126465</v>
       </c>
-      <c r="R23">
+      <c r="V23" s="1">
         <v>1.5314344167709351</v>
       </c>
-      <c r="S23">
+      <c r="W23" s="1">
         <v>1.8471924066543579</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>6.3000000081956387E-3</v>
       </c>
-      <c r="C24">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1">
         <v>0.12747000157833099</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>0.12456595897674561</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>0.13037404417991638</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
+        <v>6.3000000081956387E-3</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
         <v>4.6398844718933105</v>
       </c>
-      <c r="H24">
+      <c r="J24" s="1">
         <v>3.803351879119873</v>
       </c>
-      <c r="I24">
+      <c r="K24" s="1">
         <v>5.476417064666748</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="1">
+        <v>6.3000000081956387E-3</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1">
         <v>0.12734000384807587</v>
       </c>
-      <c r="N24">
+      <c r="P24" s="1">
         <v>0.12462862581014633</v>
       </c>
-      <c r="O24">
+      <c r="Q24" s="1">
         <v>0.1300513744354248</v>
       </c>
-      <c r="Q24">
+      <c r="S24" s="1">
+        <v>6.3000000081956387E-3</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1">
         <v>1.7684051990509033</v>
       </c>
-      <c r="R24">
+      <c r="V24" s="1">
         <v>1.5711915493011475</v>
       </c>
-      <c r="S24">
+      <c r="W24" s="1">
         <v>1.9656188488006592</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <v>6.5999999642372131E-3</v>
       </c>
-      <c r="C25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1">
         <v>0.13386000692844391</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>0.130995973944664</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>0.13672403991222382</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
+        <v>6.5999999642372131E-3</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1">
         <v>4.9540481567382812</v>
       </c>
-      <c r="H25">
+      <c r="J25" s="1">
         <v>4.1077375411987305</v>
       </c>
-      <c r="I25">
+      <c r="K25" s="1">
         <v>5.800358772277832</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="1">
+        <v>6.5999999642372131E-3</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1">
         <v>0.13395999372005463</v>
       </c>
-      <c r="N25">
+      <c r="P25" s="1">
         <v>0.13147126138210297</v>
       </c>
-      <c r="O25">
+      <c r="Q25" s="1">
         <v>0.13644872605800629</v>
       </c>
-      <c r="Q25">
+      <c r="S25" s="1">
+        <v>6.5999999642372131E-3</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1">
         <v>1.7544395923614502</v>
       </c>
-      <c r="R25">
+      <c r="V25" s="1">
         <v>1.6520111560821533</v>
       </c>
-      <c r="S25">
+      <c r="W25" s="1">
         <v>1.8568680286407471</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>6.8999999202787876E-3</v>
       </c>
-      <c r="C26">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1">
         <v>0.13985000550746918</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>0.13666069507598877</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>0.14303931593894958</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
+        <v>6.8999999202787876E-3</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1">
         <v>5.0820322036743164</v>
       </c>
-      <c r="H26">
+      <c r="J26" s="1">
         <v>4.2637662887573242</v>
       </c>
-      <c r="I26">
+      <c r="K26" s="1">
         <v>5.9002981185913086</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="1">
+        <v>6.8999999202787876E-3</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1">
         <v>0.13984000682830811</v>
       </c>
-      <c r="N26">
+      <c r="P26" s="1">
         <v>0.1370883584022522</v>
       </c>
-      <c r="O26">
+      <c r="Q26" s="1">
         <v>0.14259165525436401</v>
       </c>
-      <c r="Q26">
+      <c r="S26" s="1">
+        <v>6.8999999202787876E-3</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1">
         <v>1.9433625936508179</v>
       </c>
-      <c r="R26">
+      <c r="V26" s="1">
         <v>1.5773999691009521</v>
       </c>
-      <c r="S26">
+      <c r="W26" s="1">
         <v>2.3093252182006836</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A27">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
         <v>7.1999998763203621E-3</v>
       </c>
-      <c r="C27">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1">
         <v>0.14610999822616577</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>0.14300785958766937</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>0.14921213686466217</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
+        <v>7.1999998763203621E-3</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1">
         <v>5.446596622467041</v>
       </c>
-      <c r="H27">
+      <c r="J27" s="1">
         <v>4.7646865844726562</v>
       </c>
-      <c r="I27">
+      <c r="K27" s="1">
         <v>6.1285066604614258</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="1">
+        <v>7.1999998763203621E-3</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1">
         <v>0.14609000086784363</v>
       </c>
-      <c r="N27">
+      <c r="P27" s="1">
         <v>0.14310804009437561</v>
       </c>
-      <c r="O27">
+      <c r="Q27" s="1">
         <v>0.14907196164131165</v>
       </c>
-      <c r="Q27">
+      <c r="S27" s="1">
+        <v>7.1999998763203621E-3</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1">
         <v>1.9635927677154541</v>
       </c>
-      <c r="R27">
+      <c r="V27" s="1">
         <v>1.6679188013076782</v>
       </c>
-      <c r="S27">
+      <c r="W27" s="1">
         <v>2.2592668533325195</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <v>7.4999998323619366E-3</v>
       </c>
-      <c r="C28">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
         <v>0.15245999395847321</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>0.14950019121170044</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>0.15541979670524597</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
+        <v>7.4999998323619366E-3</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1">
         <v>5.847470760345459</v>
       </c>
-      <c r="H28">
+      <c r="J28" s="1">
         <v>4.9691228866577148</v>
       </c>
-      <c r="I28">
+      <c r="K28" s="1">
         <v>6.7258186340332031</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="1">
+        <v>7.4999998323619366E-3</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1">
         <v>0.15217000246047974</v>
       </c>
-      <c r="N28">
+      <c r="P28" s="1">
         <v>0.14934784173965454</v>
       </c>
-      <c r="O28">
+      <c r="Q28" s="1">
         <v>0.15499216318130493</v>
       </c>
-      <c r="Q28">
+      <c r="S28" s="1">
+        <v>7.4999998323619366E-3</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1">
         <v>2.2240233421325684</v>
       </c>
-      <c r="R28">
+      <c r="V28" s="1">
         <v>1.7646572589874268</v>
       </c>
-      <c r="S28">
+      <c r="W28" s="1">
         <v>2.68338942527771</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <v>7.799999788403511E-3</v>
       </c>
-      <c r="C29">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
         <v>0.15797999501228333</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>0.15536558628082275</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>0.1605944037437439</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
+        <v>7.799999788403511E-3</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1">
         <v>5.8914608955383301</v>
       </c>
-      <c r="H29">
+      <c r="J29" s="1">
         <v>4.8890833854675293</v>
       </c>
-      <c r="I29">
+      <c r="K29" s="1">
         <v>6.8938384056091309</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="1">
+        <v>7.799999788403511E-3</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1">
         <v>0.15783999860286713</v>
       </c>
-      <c r="N29">
+      <c r="P29" s="1">
         <v>0.1553611159324646</v>
       </c>
-      <c r="O29">
+      <c r="Q29" s="1">
         <v>0.16031888127326965</v>
       </c>
-      <c r="Q29">
+      <c r="S29" s="1">
+        <v>7.799999788403511E-3</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1">
         <v>2.3130488395690918</v>
       </c>
-      <c r="R29">
+      <c r="V29" s="1">
         <v>2.0172302722930908</v>
       </c>
-      <c r="S29">
+      <c r="W29" s="1">
         <v>2.6088674068450928</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A30">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>8.1000002101063728E-3</v>
       </c>
-      <c r="C30">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1">
         <v>0.16392000019550323</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>0.16043421626091003</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>0.16740578413009644</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
+        <v>8.1000002101063728E-3</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1">
         <v>5.9481668472290039</v>
       </c>
-      <c r="H30">
+      <c r="J30" s="1">
         <v>5.2431354522705078</v>
       </c>
-      <c r="I30">
+      <c r="K30" s="1">
         <v>6.6531982421875</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="1">
+        <v>8.1000002101063728E-3</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1">
         <v>0.16369999945163727</v>
       </c>
-      <c r="N30">
+      <c r="P30" s="1">
         <v>0.16056489944458008</v>
       </c>
-      <c r="O30">
+      <c r="Q30" s="1">
         <v>0.16683509945869446</v>
       </c>
-      <c r="Q30">
+      <c r="S30" s="1">
+        <v>8.1000002101063728E-3</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1">
         <v>2.585153341293335</v>
       </c>
-      <c r="R30">
+      <c r="V30" s="1">
         <v>2.131974458694458</v>
       </c>
-      <c r="S30">
+      <c r="W30" s="1">
         <v>3.0383322238922119</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A31">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
         <v>8.39999970048666E-3</v>
       </c>
-      <c r="C31">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1">
         <v>0.17038999497890472</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>0.16675850749015808</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>0.17402148246765137</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
+        <v>8.39999970048666E-3</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1">
         <v>6.3223161697387695</v>
       </c>
-      <c r="H31">
+      <c r="J31" s="1">
         <v>5.4558920860290527</v>
       </c>
-      <c r="I31">
+      <c r="K31" s="1">
         <v>7.1887402534484863</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="1">
+        <v>8.39999970048666E-3</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1">
         <v>0.16985000669956207</v>
       </c>
-      <c r="N31">
+      <c r="P31" s="1">
         <v>0.16631439328193665</v>
       </c>
-      <c r="O31">
+      <c r="Q31" s="1">
         <v>0.1733856201171875</v>
       </c>
-      <c r="Q31">
+      <c r="S31" s="1">
+        <v>8.39999970048666E-3</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1">
         <v>2.3632802963256836</v>
       </c>
-      <c r="R31">
+      <c r="V31" s="1">
         <v>1.9847122430801392</v>
       </c>
-      <c r="S31">
+      <c r="W31" s="1">
         <v>2.7418484687805176</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A32">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
         <v>8.7000001221895218E-3</v>
       </c>
-      <c r="C32">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1">
         <v>0.17631000280380249</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>0.17210353910923004</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>0.18051646649837494</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
+        <v>8.7000001221895218E-3</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1">
         <v>6.5817403793334961</v>
       </c>
-      <c r="H32">
+      <c r="J32" s="1">
         <v>5.7767806053161621</v>
       </c>
-      <c r="I32">
+      <c r="K32" s="1">
         <v>7.3867001533508301</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="1">
+        <v>8.7000001221895218E-3</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1">
         <v>0.17614999413490295</v>
       </c>
-      <c r="N32">
+      <c r="P32" s="1">
         <v>0.17260308563709259</v>
       </c>
-      <c r="O32">
+      <c r="Q32" s="1">
         <v>0.17969690263271332</v>
       </c>
-      <c r="Q32">
+      <c r="S32" s="1">
+        <v>8.7000001221895218E-3</v>
+      </c>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1">
         <v>2.7402045726776123</v>
       </c>
-      <c r="R32">
+      <c r="V32" s="1">
         <v>1.7801344394683838</v>
       </c>
-      <c r="S32">
+      <c r="W32" s="1">
         <v>3.7002747058868408</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A33">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
         <v>8.999999612569809E-3</v>
       </c>
-      <c r="C33">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1">
         <v>0.18185999989509583</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>0.1779082864522934</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>0.18581171333789825</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
+        <v>8.999999612569809E-3</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1">
         <v>6.8362131118774414</v>
       </c>
-      <c r="H33">
+      <c r="J33" s="1">
         <v>5.8163690567016602</v>
       </c>
-      <c r="I33">
+      <c r="K33" s="1">
         <v>7.8560571670532227</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="1">
+        <v>8.999999612569809E-3</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1">
         <v>0.18184000253677368</v>
       </c>
-      <c r="N33">
+      <c r="P33" s="1">
         <v>0.17824241518974304</v>
       </c>
-      <c r="O33">
+      <c r="Q33" s="1">
         <v>0.18543758988380432</v>
       </c>
-      <c r="Q33">
+      <c r="S33" s="1">
+        <v>8.999999612569809E-3</v>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1">
         <v>2.6283891201019287</v>
       </c>
-      <c r="R33">
+      <c r="V33" s="1">
         <v>2.1250042915344238</v>
       </c>
-      <c r="S33">
+      <c r="W33" s="1">
         <v>3.1317739486694336</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A34">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>9.3000000342726707E-3</v>
       </c>
-      <c r="C34">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1">
         <v>0.18796999752521515</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>0.18377237021923065</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>0.19216762483119965</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
+        <v>9.3000000342726707E-3</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1">
         <v>7.6119861602783203</v>
       </c>
-      <c r="H34">
+      <c r="J34" s="1">
         <v>6.6820006370544434</v>
       </c>
-      <c r="I34">
+      <c r="K34" s="1">
         <v>8.5419712066650391</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="1">
+        <v>9.3000000342726707E-3</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1">
         <v>0.1877100020647049</v>
       </c>
-      <c r="N34">
+      <c r="P34" s="1">
         <v>0.18393215537071228</v>
       </c>
-      <c r="O34">
+      <c r="Q34" s="1">
         <v>0.19148784875869751</v>
       </c>
-      <c r="Q34">
+      <c r="S34" s="1">
+        <v>9.3000000342726707E-3</v>
+      </c>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1">
         <v>3.0874114036560059</v>
       </c>
-      <c r="R34">
+      <c r="V34" s="1">
         <v>2.170818567276001</v>
       </c>
-      <c r="S34">
+      <c r="W34" s="1">
         <v>4.0040044784545898</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <v>9.5999995246529579E-3</v>
       </c>
-      <c r="C35">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1">
         <v>0.19363999366760254</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>0.1893315464258194</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>0.19794844090938568</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
+        <v>9.5999995246529579E-3</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1">
         <v>7.8633513450622559</v>
       </c>
-      <c r="H35">
+      <c r="J35" s="1">
         <v>6.9127292633056641</v>
       </c>
-      <c r="I35">
+      <c r="K35" s="1">
         <v>8.8139734268188477</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="1">
+        <v>9.5999995246529579E-3</v>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1">
         <v>0.1936199963092804</v>
       </c>
-      <c r="N35">
+      <c r="P35" s="1">
         <v>0.18981128931045532</v>
       </c>
-      <c r="O35">
+      <c r="Q35" s="1">
         <v>0.19742870330810547</v>
       </c>
-      <c r="Q35">
+      <c r="S35" s="1">
+        <v>9.5999995246529579E-3</v>
+      </c>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1">
         <v>3.2835917472839355</v>
       </c>
-      <c r="R35">
+      <c r="V35" s="1">
         <v>2.5631012916564941</v>
       </c>
-      <c r="S35">
+      <c r="W35" s="1">
         <v>4.004082202911377</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A36">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <v>9.8999999463558197E-3</v>
       </c>
-      <c r="C36">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1">
         <v>0.19909000396728516</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>0.19488327205181122</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>0.20329673588275909</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
+        <v>9.8999999463558197E-3</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1">
         <v>8.055908203125</v>
       </c>
-      <c r="H36">
+      <c r="J36" s="1">
         <v>7.2246456146240234</v>
       </c>
-      <c r="I36">
+      <c r="K36" s="1">
         <v>8.8871707916259766</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="1">
+        <v>9.8999999463558197E-3</v>
+      </c>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1">
         <v>0.19930000603199005</v>
       </c>
-      <c r="N36">
+      <c r="P36" s="1">
         <v>0.19546189904212952</v>
       </c>
-      <c r="O36">
+      <c r="Q36" s="1">
         <v>0.20313811302185059</v>
       </c>
-      <c r="Q36">
+      <c r="S36" s="1">
+        <v>9.8999999463558197E-3</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1">
         <v>3.5562922954559326</v>
       </c>
-      <c r="R36">
+      <c r="V36" s="1">
         <v>2.4119462966918945</v>
       </c>
-      <c r="S36">
+      <c r="W36" s="1">
         <v>4.7006382942199707</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A37">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <v>1.0199999436736107E-2</v>
       </c>
-      <c r="C37">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1">
         <v>0.20509999990463257</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>0.20082682371139526</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>0.20937317609786987</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
+        <v>1.0199999436736107E-2</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1">
         <v>8.4540948867797852</v>
       </c>
-      <c r="H37">
+      <c r="J37" s="1">
         <v>7.3533725738525391</v>
       </c>
-      <c r="I37">
+      <c r="K37" s="1">
         <v>9.5548171997070312</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="1">
+        <v>1.0199999436736107E-2</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1">
         <v>0.20517000555992126</v>
       </c>
-      <c r="N37">
+      <c r="P37" s="1">
         <v>0.20168828964233398</v>
       </c>
-      <c r="O37">
+      <c r="Q37" s="1">
         <v>0.20865172147750854</v>
       </c>
-      <c r="Q37">
+      <c r="S37" s="1">
+        <v>1.0199999436736107E-2</v>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1">
         <v>4.2035179138183594</v>
       </c>
-      <c r="R37">
+      <c r="V37" s="1">
         <v>2.8129875659942627</v>
       </c>
-      <c r="S37">
+      <c r="W37" s="1">
         <v>5.5940485000610352</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>1.0499999858438969E-2</v>
       </c>
-      <c r="C38">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1">
         <v>0.21114000678062439</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>0.20662923157215118</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>0.2156507819890976</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
+        <v>1.0499999858438969E-2</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1">
         <v>8.9600934982299805</v>
       </c>
-      <c r="H38">
+      <c r="J38" s="1">
         <v>8.1114788055419922</v>
       </c>
-      <c r="I38">
+      <c r="K38" s="1">
         <v>9.8087081909179687</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="1">
+        <v>1.0499999858438969E-2</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1">
         <v>0.21110999584197998</v>
       </c>
-      <c r="N38">
+      <c r="P38" s="1">
         <v>0.20728741586208344</v>
       </c>
-      <c r="O38">
+      <c r="Q38" s="1">
         <v>0.21493257582187653</v>
       </c>
-      <c r="Q38">
+      <c r="S38" s="1">
+        <v>1.0499999858438969E-2</v>
+      </c>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1">
         <v>3.9055781364440918</v>
       </c>
-      <c r="R38">
+      <c r="V38" s="1">
         <v>3.0140633583068848</v>
       </c>
-      <c r="S38">
+      <c r="W38" s="1">
         <v>4.7970929145812988</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A39">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
         <v>1.0799999348819256E-2</v>
       </c>
-      <c r="C39">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1">
         <v>0.21737000346183777</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>0.21217682957649231</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>0.22256317734718323</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="1">
+        <v>1.0799999348819256E-2</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1">
         <v>9.7703218460083008</v>
       </c>
-      <c r="H39">
+      <c r="J39" s="1">
         <v>8.5585718154907227</v>
       </c>
-      <c r="I39">
+      <c r="K39" s="1">
         <v>10.982071876525879</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="1">
+        <v>1.0799999348819256E-2</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1">
         <v>0.21694999933242798</v>
       </c>
-      <c r="N39">
+      <c r="P39" s="1">
         <v>0.21267233788967133</v>
       </c>
-      <c r="O39">
+      <c r="Q39" s="1">
         <v>0.22122766077518463</v>
       </c>
-      <c r="Q39">
+      <c r="S39" s="1">
+        <v>1.0799999348819256E-2</v>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1">
         <v>4.038055419921875</v>
       </c>
-      <c r="R39">
+      <c r="V39" s="1">
         <v>3.2432286739349365</v>
       </c>
-      <c r="S39">
+      <c r="W39" s="1">
         <v>4.8328819274902344</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A40">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>1.1099999770522118E-2</v>
       </c>
-      <c r="C40">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1">
         <v>0.22306999564170837</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>0.21845287084579468</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>0.22768712043762207</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
+        <v>1.1099999770522118E-2</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1">
         <v>10.247858047485352</v>
       </c>
-      <c r="H40">
+      <c r="J40" s="1">
         <v>9.0841484069824219</v>
       </c>
-      <c r="I40">
+      <c r="K40" s="1">
         <v>11.411567687988281</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="1">
+        <v>1.1099999770522118E-2</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1">
         <v>0.22351999580860138</v>
       </c>
-      <c r="N40">
+      <c r="P40" s="1">
         <v>0.21941503882408142</v>
       </c>
-      <c r="O40">
+      <c r="Q40" s="1">
         <v>0.22762495279312134</v>
       </c>
-      <c r="Q40">
+      <c r="S40" s="1">
+        <v>1.1099999770522118E-2</v>
+      </c>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1">
         <v>4.9992070198059082</v>
       </c>
-      <c r="R40">
+      <c r="V40" s="1">
         <v>3.021127462387085</v>
       </c>
-      <c r="S40">
+      <c r="W40" s="1">
         <v>6.9772863388061523</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A41">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
         <v>1.1400000192224979E-2</v>
       </c>
-      <c r="C41">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1">
         <v>0.22951999306678772</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>0.22461041808128357</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>0.23442956805229187</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
+        <v>1.1400000192224979E-2</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1">
         <v>10.473980903625488</v>
       </c>
-      <c r="H41">
+      <c r="J41" s="1">
         <v>9.3959369659423828</v>
       </c>
-      <c r="I41">
+      <c r="K41" s="1">
         <v>11.552024841308594</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="1">
+        <v>1.1400000192224979E-2</v>
+      </c>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1">
         <v>0.22935999929904938</v>
       </c>
-      <c r="N41">
+      <c r="P41" s="1">
         <v>0.22533915936946869</v>
       </c>
-      <c r="O41">
+      <c r="Q41" s="1">
         <v>0.23338083922863007</v>
       </c>
-      <c r="Q41">
+      <c r="S41" s="1">
+        <v>1.1400000192224979E-2</v>
+      </c>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1">
         <v>5.8327007293701172</v>
       </c>
-      <c r="R41">
+      <c r="V41" s="1">
         <v>4.0220737457275391</v>
       </c>
-      <c r="S41">
+      <c r="W41" s="1">
         <v>7.6433277130126953</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A42">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>1.1699999682605267E-2</v>
       </c>
-      <c r="C42">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1">
         <v>0.2353300005197525</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>0.23036500811576843</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>0.24029499292373657</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="1">
+        <v>1.1699999682605267E-2</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1">
         <v>11.116902351379395</v>
       </c>
-      <c r="H42">
+      <c r="J42" s="1">
         <v>9.7804555892944336</v>
       </c>
-      <c r="I42">
+      <c r="K42" s="1">
         <v>12.453349113464355</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="1">
+        <v>1.1699999682605267E-2</v>
+      </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1">
         <v>0.23536999523639679</v>
       </c>
-      <c r="N42">
+      <c r="P42" s="1">
         <v>0.2309187650680542</v>
       </c>
-      <c r="O42">
+      <c r="Q42" s="1">
         <v>0.23982122540473938</v>
       </c>
-      <c r="Q42">
+      <c r="S42" s="1">
+        <v>1.1699999682605267E-2</v>
+      </c>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1">
         <v>5.8423233032226563</v>
       </c>
-      <c r="R42">
+      <c r="V42" s="1">
         <v>3.013505220413208</v>
       </c>
-      <c r="S42">
+      <c r="W42" s="1">
         <v>8.6711416244506836</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A43">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>1.2000000104308128E-2</v>
       </c>
-      <c r="C43">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1">
         <v>0.24088999629020691</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>0.23656733334064484</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>0.24521265923976898</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
+        <v>1.2000000104308128E-2</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1">
         <v>12.015904426574707</v>
       </c>
-      <c r="H43">
+      <c r="J43" s="1">
         <v>10.672720909118652</v>
       </c>
-      <c r="I43">
+      <c r="K43" s="1">
         <v>13.359087944030762</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="1">
+        <v>1.2000000104308128E-2</v>
+      </c>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1">
         <v>0.24100999534130096</v>
       </c>
-      <c r="N43">
+      <c r="P43" s="1">
         <v>0.2366950511932373</v>
       </c>
-      <c r="O43">
+      <c r="Q43" s="1">
         <v>0.24532493948936462</v>
       </c>
-      <c r="Q43">
+      <c r="S43" s="1">
+        <v>1.2000000104308128E-2</v>
+      </c>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1">
         <v>6.2724380493164062</v>
       </c>
-      <c r="R43">
+      <c r="V43" s="1">
         <v>4.3009805679321289</v>
       </c>
-      <c r="S43">
+      <c r="W43" s="1">
         <v>8.2438955307006836</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A44">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>1.2299999594688416E-2</v>
       </c>
-      <c r="C44">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1">
         <v>0.24711999297142029</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>0.2414129227399826</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>0.25282707810401917</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1">
+        <v>1.2299999594688416E-2</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1">
         <v>12.252437591552734</v>
       </c>
-      <c r="H44">
+      <c r="J44" s="1">
         <v>10.623809814453125</v>
       </c>
-      <c r="I44">
+      <c r="K44" s="1">
         <v>13.881065368652344</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="1">
+        <v>1.2299999594688416E-2</v>
+      </c>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1">
         <v>0.2472199946641922</v>
       </c>
-      <c r="N44">
+      <c r="P44" s="1">
         <v>0.24264766275882721</v>
       </c>
-      <c r="O44">
+      <c r="Q44" s="1">
         <v>0.25179234147071838</v>
       </c>
-      <c r="Q44">
+      <c r="S44" s="1">
+        <v>1.2299999594688416E-2</v>
+      </c>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1">
         <v>7.3891620635986328</v>
       </c>
-      <c r="R44">
+      <c r="V44" s="1">
         <v>4.2929353713989258</v>
       </c>
-      <c r="S44">
+      <c r="W44" s="1">
         <v>10.48538875579834</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A45">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
         <v>1.2600000016391277E-2</v>
       </c>
-      <c r="C45">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1">
         <v>0.25244000554084778</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>0.24764783680438995</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>0.2572321891784668</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="1">
+        <v>1.2600000016391277E-2</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1">
         <v>12.558293342590332</v>
       </c>
-      <c r="H45">
+      <c r="J45" s="1">
         <v>11.957857131958008</v>
       </c>
-      <c r="I45">
+      <c r="K45" s="1">
         <v>13.158729553222656</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="1">
+        <v>1.2600000016391277E-2</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1">
         <v>0.25345000624656677</v>
       </c>
-      <c r="N45">
+      <c r="P45" s="1">
         <v>0.24923805892467499</v>
       </c>
-      <c r="O45">
+      <c r="Q45" s="1">
         <v>0.25766196846961975</v>
       </c>
-      <c r="Q45">
+      <c r="S45" s="1">
+        <v>1.2600000016391277E-2</v>
+      </c>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1">
         <v>7.5912117958068848</v>
       </c>
-      <c r="R45">
+      <c r="V45" s="1">
         <v>4.6552743911743164</v>
       </c>
-      <c r="S45">
+      <c r="W45" s="1">
         <v>10.527149200439453</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A46">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
         <v>1.2899999506771564E-2</v>
       </c>
-      <c r="C46">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1">
         <v>0.25837001204490662</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>0.25317597389221191</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>0.26356405019760132</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="1">
+        <v>1.2899999506771564E-2</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1">
         <v>13.426356315612793</v>
       </c>
-      <c r="H46">
+      <c r="J46" s="1">
         <v>12.192520141601563</v>
       </c>
-      <c r="I46">
+      <c r="K46" s="1">
         <v>14.660192489624023</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="1">
+        <v>1.2899999506771564E-2</v>
+      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1">
         <v>0.25935998558998108</v>
       </c>
-      <c r="N46">
+      <c r="P46" s="1">
         <v>0.25514277815818787</v>
       </c>
-      <c r="O46">
+      <c r="Q46" s="1">
         <v>0.26357719302177429</v>
       </c>
-      <c r="Q46">
+      <c r="S46" s="1">
+        <v>1.2899999506771564E-2</v>
+      </c>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1">
         <v>7.7410054206848145</v>
       </c>
-      <c r="R46">
+      <c r="V46" s="1">
         <v>6.3113193511962891</v>
       </c>
-      <c r="S46">
+      <c r="W46" s="1">
         <v>9.1706914901733398</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A47">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
         <v>1.3199999928474426E-2</v>
       </c>
-      <c r="C47">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1">
         <v>0.26431998610496521</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>0.25880700349807739</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>0.26983296871185303</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1">
+        <v>1.3199999928474426E-2</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1">
         <v>14.1121826171875</v>
       </c>
-      <c r="H47">
+      <c r="J47" s="1">
         <v>12.61623477935791</v>
       </c>
-      <c r="I47">
+      <c r="K47" s="1">
         <v>15.60813045501709</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="1">
+        <v>1.3199999928474426E-2</v>
+      </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1">
         <v>0.26480001211166382</v>
       </c>
-      <c r="N47">
+      <c r="P47" s="1">
         <v>0.2599884569644928</v>
       </c>
-      <c r="O47">
+      <c r="Q47" s="1">
         <v>0.26961156725883484</v>
       </c>
-      <c r="Q47">
+      <c r="S47" s="1">
+        <v>1.3199999928474426E-2</v>
+      </c>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1">
         <v>12.510171890258789</v>
       </c>
-      <c r="R47">
+      <c r="V47" s="1">
         <v>8.8893756866455078</v>
       </c>
-      <c r="S47">
+      <c r="W47" s="1">
         <v>16.13096809387207</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
         <v>1.3499999418854713E-2</v>
       </c>
-      <c r="C48">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1">
         <v>0.27013000845909119</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>0.26540842652320862</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>0.27485159039497375</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="1">
+        <v>1.3499999418854713E-2</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1">
         <v>14.440060615539551</v>
       </c>
-      <c r="H48">
+      <c r="J48" s="1">
         <v>13.81855297088623</v>
       </c>
-      <c r="I48">
+      <c r="K48" s="1">
         <v>15.061568260192871</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="1">
+        <v>1.3499999418854713E-2</v>
+      </c>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1">
         <v>0.27053999900817871</v>
       </c>
-      <c r="N48">
+      <c r="P48" s="1">
         <v>0.26662388443946838</v>
       </c>
-      <c r="O48">
+      <c r="Q48" s="1">
         <v>0.27445611357688904</v>
       </c>
-      <c r="Q48">
+      <c r="S48" s="1">
+        <v>1.3499999418854713E-2</v>
+      </c>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1">
         <v>13.153567314147949</v>
       </c>
-      <c r="R48">
+      <c r="V48" s="1">
         <v>5.4985003471374512</v>
       </c>
-      <c r="S48">
+      <c r="W48" s="1">
         <v>20.808633804321289</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
         <v>1.3799999840557575E-2</v>
       </c>
-      <c r="C49">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1">
         <v>0.27638000249862671</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>0.27136319875717163</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>0.28139680624008179</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="1">
+        <v>1.3799999840557575E-2</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1">
         <v>16.264291763305664</v>
       </c>
-      <c r="H49">
+      <c r="J49" s="1">
         <v>14.341215133666992</v>
       </c>
-      <c r="I49">
+      <c r="K49" s="1">
         <v>18.187368392944336</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="1">
+        <v>1.3799999840557575E-2</v>
+      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1">
         <v>0.27663001418113708</v>
       </c>
-      <c r="N49">
+      <c r="P49" s="1">
         <v>0.27173534035682678</v>
       </c>
-      <c r="O49">
+      <c r="Q49" s="1">
         <v>0.28152468800544739</v>
       </c>
-      <c r="Q49">
+      <c r="S49" s="1">
+        <v>1.3799999840557575E-2</v>
+      </c>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1">
         <v>16.09138298034668</v>
       </c>
-      <c r="R49">
+      <c r="V49" s="1">
         <v>9.3786773681640625</v>
       </c>
-      <c r="S49">
+      <c r="W49" s="1">
         <v>22.804088592529297</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A50">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
         <v>1.4099999330937862E-2</v>
       </c>
-      <c r="C50">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1">
         <v>0.28174000978469849</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>0.2780030369758606</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>0.28547698259353638</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="1">
+        <v>1.4099999330937862E-2</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1">
         <v>16.756477355957031</v>
       </c>
-      <c r="H50">
+      <c r="J50" s="1">
         <v>15.542074203491211</v>
       </c>
-      <c r="I50">
+      <c r="K50" s="1">
         <v>17.970880508422852</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="1">
+        <v>1.4099999330937862E-2</v>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1">
         <v>0.28196999430656433</v>
       </c>
-      <c r="N50">
+      <c r="P50" s="1">
         <v>0.27819669246673584</v>
       </c>
-      <c r="O50">
+      <c r="Q50" s="1">
         <v>0.28574329614639282</v>
       </c>
-      <c r="Q50">
+      <c r="S50" s="1">
+        <v>1.4099999330937862E-2</v>
+      </c>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1">
         <v>14.076728820800781</v>
       </c>
-      <c r="R50">
+      <c r="V50" s="1">
         <v>10.09798526763916</v>
       </c>
-      <c r="S50">
+      <c r="W50" s="1">
         <v>18.055471420288086</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A51">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
         <v>1.4399999752640724E-2</v>
       </c>
-      <c r="C51">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1">
         <v>0.28766998648643494</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>0.28166887164115906</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>0.29367110133171082</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="1">
+        <v>1.4399999752640724E-2</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1">
         <v>17.2781982421875</v>
       </c>
-      <c r="H51">
+      <c r="J51" s="1">
         <v>15.751764297485352</v>
       </c>
-      <c r="I51">
+      <c r="K51" s="1">
         <v>18.804632186889648</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="1">
+        <v>1.4399999752640724E-2</v>
+      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1">
         <v>0.28837999701499939</v>
       </c>
-      <c r="N51">
+      <c r="P51" s="1">
         <v>0.28448390960693359</v>
       </c>
-      <c r="O51">
+      <c r="Q51" s="1">
         <v>0.29227608442306519</v>
       </c>
-      <c r="Q51">
+      <c r="S51" s="1">
+        <v>1.4399999752640724E-2</v>
+      </c>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1">
         <v>16.082447052001953</v>
       </c>
-      <c r="R51">
+      <c r="V51" s="1">
         <v>12.912206649780273</v>
       </c>
-      <c r="S51">
+      <c r="W51" s="1">
         <v>19.252687454223633</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
         <v>1.4699999243021011E-2</v>
       </c>
-      <c r="C52">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1">
         <v>0.29339998960494995</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>0.28858542442321777</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <v>0.29821455478668213</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="1">
+        <v>1.4699999243021011E-2</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1">
         <v>20.361967086791992</v>
       </c>
-      <c r="H52">
+      <c r="J52" s="1">
         <v>18.044889450073242</v>
       </c>
-      <c r="I52">
+      <c r="K52" s="1">
         <v>22.679044723510742</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="1">
+        <v>1.4699999243021011E-2</v>
+      </c>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1">
         <v>0.2937999963760376</v>
       </c>
-      <c r="N52">
+      <c r="P52" s="1">
         <v>0.28990897536277771</v>
       </c>
-      <c r="O52">
+      <c r="Q52" s="1">
         <v>0.29769101738929749</v>
       </c>
-      <c r="Q52">
+      <c r="S52" s="1">
+        <v>1.4699999243021011E-2</v>
+      </c>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1">
         <v>26.601579666137695</v>
       </c>
-      <c r="R52">
+      <c r="V52" s="1">
         <v>18.798639297485352</v>
       </c>
-      <c r="S52">
+      <c r="W52" s="1">
         <v>34.404518127441406</v>
       </c>
     </row>
